--- a/File/Unsuccessful-2019-06-28.xlsx
+++ b/File/Unsuccessful-2019-06-28.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ltclb</t>
+          <t>lbltc</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-942.05</v>
+        <v>-257.25</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
@@ -1519,11 +1519,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>lbltc</t>
+          <t>ltclb</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-257.25</v>
+        <v>-942.05</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
@@ -1625,27 +1625,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3388RT</t>
+          <t>hq1811</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>60155077</v>
+        <v>60205715</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>43641.38725532407</v>
+        <v>43643.01979479167</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3388WnN</t>
+          <t>hq1811</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-35</v>
+        <v>-105</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1668,30 +1668,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>huangyongwu1688</t>
+          <t>3388RT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>60167004</v>
+        <v>60155077</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>43641.82393815972</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>43641.38725532407</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3388WnN</t>
+        </is>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>minzhen1688</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
@@ -1744,14 +1744,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fongsum</t>
+          <t>huangyongwu1688</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>60183415</v>
+        <v>60167004</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>43642.4416550926</v>
+        <v>43641.82393815972</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Fongsum</t>
+          <t>minzhen1688</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
@@ -1782,30 +1782,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>hungmanhoi</t>
+          <t>Fongsum</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>60203826</v>
+        <v>60183415</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>43642.97374267361</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>yuruizhen</t>
-        </is>
-      </c>
+        <v>43642.4416550926</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Fongsum</t>
+        </is>
+      </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
@@ -1815,43 +1815,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yumei0324</t>
+          <t>hungmanhoi</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>60151394</v>
+        <v>60203826</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>43641.15681420139</v>
+        <v>43642.97374267361</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Yumei0324</t>
+          <t>yuruizhen</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>-35</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Yumei0324</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>35</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Krishana113</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -1866,34 +1858,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sbj0909</t>
+          <t>Yumei0324</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>60153278</v>
+        <v>60151394</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>43641.27056119213</v>
+        <v>43641.15681420139</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>tkshi0207</t>
+          <t>Yumei0324</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-70</v>
+        <v>-35</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>tkshi0207</t>
+          <t>Yumei0324</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>fhz0909</t>
+          <t>Krishana113</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -1912,26 +1904,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AS0913s</t>
+          <t>Sbj0909</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60155394</v>
+        <v>60153278</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>43641.40226646991</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+        <v>43641.27056119213</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>tkshi0207</t>
+        </is>
+      </c>
       <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>-70</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>tkshi0207</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>tzuying1005</t>
+          <t>fhz0909</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -1950,14 +1950,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>771026</t>
+          <t>AS0913s</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>60156905</v>
+        <v>60155394</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>43641.46971782407</v>
+        <v>43641.40226646991</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>770817</t>
+          <t>tzuying1005</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -1988,30 +1988,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHANG5665</t>
+          <t>771026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60177207</v>
+        <v>60156905</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>43642.10490023148</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CHANG5665</t>
-        </is>
-      </c>
+        <v>43641.46971782407</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>770817</t>
+        </is>
+      </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
@@ -2026,30 +2026,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>te999</t>
+          <t>CHANG5665</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>60183745</v>
+        <v>60177207</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>43642.4562630787</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+        <v>43642.10490023148</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>CHANG5665</t>
+        </is>
+      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>te056</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
@@ -2064,34 +2064,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rung1206</t>
+          <t>te999</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60204094</v>
+        <v>60183745</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>43642.98773248843</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>paulsen888</t>
-        </is>
-      </c>
+        <v>43642.4562630787</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>-1073.43</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>paulsen888</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1073.43</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>24720</t>
+          <t>te056</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2099,6 +2091,52 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rung1206</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>60204094</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>43642.98773248843</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>paulsen888</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-1073.43</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>paulsen888</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1073.43</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>24720</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>-700</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/File/Unsuccessful-2019-06-28.xlsx
+++ b/File/Unsuccessful-2019-06-28.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,35 +1663,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3388RT</t>
+          <t>xinyi09</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>60155077</v>
+        <v>60209773</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>43641.38725532407</v>
+        <v>43643.08275393519</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3388WnN</t>
+          <t>xinyi09</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-35</v>
+        <v>-597.4400000000001</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>qiansheng8</t>
+        </is>
+      </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
@@ -1706,30 +1710,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>huangyongwu1688</t>
+          <t>3388RT</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>60167004</v>
+        <v>60155077</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>43641.82393815972</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+        <v>43641.38725532407</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3388WnN</t>
+        </is>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>libihua1688</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-268.6</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -1782,14 +1786,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fongsum</t>
+          <t>huangyongwu1688</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>60183415</v>
+        <v>60167004</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>43642.4416550926</v>
+        <v>43641.82393815972</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
@@ -1801,11 +1805,11 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Fongsum</t>
+          <t>libihua1688</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-700</v>
+        <v>-268.6</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
@@ -1820,30 +1824,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hungmanhoi</t>
+          <t>Fongsum</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>60203826</v>
+        <v>60183415</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>43642.97374267361</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>yuruizhen</t>
-        </is>
-      </c>
+        <v>43642.4416550926</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Fongsum</t>
+        </is>
+      </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -1853,43 +1857,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yumei0324</t>
+          <t>hungmanhoi</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>60151394</v>
+        <v>60203826</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>43641.15681420139</v>
+        <v>43642.97374267361</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Yumei0324</t>
+          <t>yuruizhen</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>-35</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Yumei0324</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>35</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Krishana113</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
@@ -1899,43 +1895,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sbj0909</t>
+          <t>Chenqun28</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60153278</v>
+        <v>60208663</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>43641.27056119213</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>tkshi0207</t>
-        </is>
-      </c>
+        <v>43643.07603186343</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>-70</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>tkshi0207</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>fhz0909</t>
+          <t>Chenqun28</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-700</v>
+        <v>-94.3</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
@@ -1950,26 +1938,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AS0913s</t>
+          <t>Yumei0324</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>60155394</v>
+        <v>60151394</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>43641.40226646991</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>43641.15681420139</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yumei0324</t>
+        </is>
+      </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>-35</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yumei0324</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>tzuying1005</t>
+          <t>Krishana113</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -1988,26 +1984,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>771026</t>
+          <t>Sbj0909</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60156905</v>
+        <v>60153278</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>43641.46971782407</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
+        <v>43641.27056119213</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>tkshi0207</t>
+        </is>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>-70</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>tkshi0207</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>770817</t>
+          <t>fhz0909</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2026,30 +2030,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHANG5665</t>
+          <t>AS0913s</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>60177207</v>
+        <v>60155394</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>43642.10490023148</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>CHANG5665</t>
-        </is>
-      </c>
+        <v>43641.40226646991</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>tzuying1005</t>
+        </is>
+      </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
@@ -2064,14 +2068,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>te999</t>
+          <t>771026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60183745</v>
+        <v>60156905</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>43642.4562630787</v>
+        <v>43641.46971782407</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
@@ -2083,7 +2087,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>te056</t>
+          <t>770817</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2102,41 +2106,155 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rung1206</t>
+          <t>CHANG5665</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>60204094</v>
+        <v>60177207</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>43642.98773248843</v>
+        <v>43642.10490023148</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>paulsen888</t>
+          <t>CHANG5665</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-1073.43</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>paulsen888</t>
-        </is>
-      </c>
+        <v>-70</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1073.43</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>24720</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>te999</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>60183745</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>43642.4562630787</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>te056</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>-700</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rung1206</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>60204094</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>43642.98773248843</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>paulsen888</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-1073.43</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>paulsen888</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1073.43</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>24720</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>-700</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mst639949</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>60211528</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>43643.12348880787</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>wen880718</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>-700</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
